--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp7-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp7-Acvr2a.xlsx
@@ -540,10 +540,10 @@
         <v>5.005563</v>
       </c>
       <c r="I2">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="J2">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N2">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q2">
-        <v>24.39174587376933</v>
+        <v>23.896359208001</v>
       </c>
       <c r="R2">
-        <v>219.525712863924</v>
+        <v>215.067232872009</v>
       </c>
       <c r="S2">
-        <v>0.2576827012619446</v>
+        <v>0.2720401283092966</v>
       </c>
       <c r="T2">
-        <v>0.2576827012619446</v>
+        <v>0.2720401283092966</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>5.005563</v>
       </c>
       <c r="I3">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="J3">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>27.084169</v>
       </c>
       <c r="N3">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q3">
-        <v>45.190504744049</v>
+        <v>45.19050474404901</v>
       </c>
       <c r="R3">
-        <v>406.714542696441</v>
+        <v>406.7145426964411</v>
       </c>
       <c r="S3">
-        <v>0.4774078655173263</v>
+        <v>0.5144562233068879</v>
       </c>
       <c r="T3">
-        <v>0.4774078655173263</v>
+        <v>0.5144562233068879</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>5.005563</v>
       </c>
       <c r="I4">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="J4">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N4">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q4">
-        <v>22.01859343878034</v>
+        <v>11.92957531676367</v>
       </c>
       <c r="R4">
-        <v>198.167340949023</v>
+        <v>107.366177850873</v>
       </c>
       <c r="S4">
-        <v>0.2326119116137157</v>
+        <v>0.1358082698539786</v>
       </c>
       <c r="T4">
-        <v>0.2326119116137157</v>
+        <v>0.1358082698539786</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05568766666666667</v>
+        <v>0.140557</v>
       </c>
       <c r="H5">
-        <v>0.167063</v>
+        <v>0.421671</v>
       </c>
       <c r="I5">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="J5">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N5">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O5">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P5">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q5">
-        <v>0.8140858962137778</v>
+        <v>2.013040627717</v>
       </c>
       <c r="R5">
-        <v>7.326773065924001</v>
+        <v>18.117365649453</v>
       </c>
       <c r="S5">
-        <v>0.00860028035226492</v>
+        <v>0.02291678936900992</v>
       </c>
       <c r="T5">
-        <v>0.00860028035226492</v>
+        <v>0.02291678936900992</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.05568766666666667</v>
+        <v>0.140557</v>
       </c>
       <c r="H6">
-        <v>0.167063</v>
+        <v>0.421671</v>
       </c>
       <c r="I6">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="J6">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>27.084169</v>
       </c>
       <c r="N6">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O6">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P6">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q6">
-        <v>1.508254175215667</v>
+        <v>3.806869542133001</v>
       </c>
       <c r="R6">
-        <v>13.574287576941</v>
+        <v>34.261825879197</v>
       </c>
       <c r="S6">
-        <v>0.01593371020141412</v>
+        <v>0.04333803612861105</v>
       </c>
       <c r="T6">
-        <v>0.01593371020141412</v>
+        <v>0.04333803612861105</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.05568766666666667</v>
+        <v>0.140557</v>
       </c>
       <c r="H7">
-        <v>0.167063</v>
+        <v>0.421671</v>
       </c>
       <c r="I7">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="J7">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N7">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O7">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P7">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q7">
-        <v>0.7348808267247778</v>
+        <v>1.004953079882333</v>
       </c>
       <c r="R7">
-        <v>6.613927440523001</v>
+        <v>9.044577718940999</v>
       </c>
       <c r="S7">
-        <v>0.007763531053334497</v>
+        <v>0.01144055303221576</v>
       </c>
       <c r="T7">
-        <v>0.007763531053334497</v>
+        <v>0.01144055303221576</v>
       </c>
     </row>
   </sheetData>
